--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,12 +5,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rb68b08e1e1104c0a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R65a488a80abf48a2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R5b82ae15f5564eba"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rd2c08fbf694d4793"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R539c6e42e54b484b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R014f38c855aa4681"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R8e8d63e729f54f3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R53cda35d7c674890"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rb821386959044387"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R5a9b644756da4416"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R014f38c855aa4681"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R8e8d63e729f54f3b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R53cda35d7c674890"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rb821386959044387"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R5a9b644756da4416"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rfd9cd3eda7244365"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R141a6062f33b4ac7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Raad18315c59e4f32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rd7d0ffb2a380495c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R35531e11e70a45fc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rfd9cd3eda7244365"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R141a6062f33b4ac7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Raad18315c59e4f32"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rd7d0ffb2a380495c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R35531e11e70a45fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R89cae87e611a4bd8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rf2698d484c1d46c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R8e514f0393bb4658"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Re58bed7ab5c7447f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R44ebc5d297cf46d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R89cae87e611a4bd8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rf2698d484c1d46c0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R8e514f0393bb4658"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Re58bed7ab5c7447f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R44ebc5d297cf46d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R2485d32ceb8f4e18"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rfb8e0c72fae14318"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R29fade839b284b79"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Ra14de7b7d9c547b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rd573991b39314ab8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R2485d32ceb8f4e18"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rfb8e0c72fae14318"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R29fade839b284b79"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Ra14de7b7d9c547b4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rd573991b39314ab8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R5eb42b085b9c4397"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rb14b68a9ba06493e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R808ee6d7ceb44d18"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R920c0a14e1444938"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Ra6ab898d8a5f4442"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R5eb42b085b9c4397"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rb14b68a9ba06493e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R808ee6d7ceb44d18"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R920c0a14e1444938"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Ra6ab898d8a5f4442"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R959bd298937e4f43"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rc2640a74761e49c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R807e6d5872514787"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R80b036481c834836"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rfb5edda88c1d420c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R959bd298937e4f43"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rc2640a74761e49c0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R807e6d5872514787"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R80b036481c834836"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rfb5edda88c1d420c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R3959ffc9e0d34a7d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R011d980ded2f4de9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R0c34a2b9b7194058"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R6a5b55cf78574b97"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Ra22e13431e1c4fcf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R3959ffc9e0d34a7d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R011d980ded2f4de9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R0c34a2b9b7194058"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R6a5b55cf78574b97"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Ra22e13431e1c4fcf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R0f90c5c3010c4698"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R9645fe29f7aa4cf5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R5c48bb5fdb6b4443"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rf55c8dd637a34d06"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R73909bda460c494f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R0f90c5c3010c4698"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R9645fe29f7aa4cf5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R5c48bb5fdb6b4443"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rf55c8dd637a34d06"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R73909bda460c494f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R215739fa5acf411a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rc5cec871059e4a01"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R2caa100a606545fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rd288f316ac84471f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rb21eae60b93543c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R215739fa5acf411a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rc5cec871059e4a01"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R2caa100a606545fc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rd288f316ac84471f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rb21eae60b93543c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Ree2b4a1fd7724527"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd0b226c0527a450f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R9ea9b533be0f4ded"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R8ee9370acc054986"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rb99978f612fa4412"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Ree2b4a1fd7724527"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd0b226c0527a450f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R9ea9b533be0f4ded"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R8ee9370acc054986"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rb99978f612fa4412"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R974aa3e996054cd9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd3689283af8a42f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R0a6d511d60f84141"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R9483429086bf4da1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Reeecc0309cf74f1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R974aa3e996054cd9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd3689283af8a42f3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R0a6d511d60f84141"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R9483429086bf4da1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Reeecc0309cf74f1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R2a6a058f8e4d4f78"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rcaf9360683544bfd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R03dd62ee074b4c3a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R8ac883001be04c94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R814d8263ae454121"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R2a6a058f8e4d4f78"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rcaf9360683544bfd"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R03dd62ee074b4c3a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R8ac883001be04c94"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R814d8263ae454121"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R4a5d6e30e2344865"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd997492f5ec648fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R90ecb7f331534ce2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rc92aac0e031e4d9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rab0e5e867d034f11"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R4a5d6e30e2344865"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd997492f5ec648fb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R90ecb7f331534ce2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rc92aac0e031e4d9b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rab0e5e867d034f11"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R1337c6d7c10c423c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R19f321c7a7b6452b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R837489a536ab4fd9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R20de30c453024043"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R23d7f11d853449d2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R1337c6d7c10c423c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R19f321c7a7b6452b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R837489a536ab4fd9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R20de30c453024043"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R23d7f11d853449d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Re3696f112fde4db2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rffe1a08bce274e1d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Reb5861b841f6487e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R2774aeb8d1414fa5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R9d23dcb528714a7b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Re3696f112fde4db2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rffe1a08bce274e1d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Reb5861b841f6487e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R2774aeb8d1414fa5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R9d23dcb528714a7b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R2964afcb5fca44da"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R15ac83b9d4214b53"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R2560c614fc704529"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R15c8b2900a5d4690"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rd3ab72c43739420f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R2964afcb5fca44da"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R15ac83b9d4214b53"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R2560c614fc704529"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R15c8b2900a5d4690"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rd3ab72c43739420f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R99cb3352266543f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R90bf10323a494702"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R0dcbbfa9d80e4059"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R24a773845d3e4ce3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rd43a7ac8c42846dc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R99cb3352266543f6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R90bf10323a494702"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R0dcbbfa9d80e4059"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R24a773845d3e4ce3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rd43a7ac8c42846dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Ra973e9e25ee645a4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd13a51bd3c1447af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R49c1ef12fdc24161"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R2275667a692e4174"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R25bb0ac783d84564"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Ra973e9e25ee645a4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rd13a51bd3c1447af"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R49c1ef12fdc24161"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R2275667a692e4174"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R25bb0ac783d84564"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rc42bd62ab5df4f76"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R0b296ed3286e4a26"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rc9308ea954dd46f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rb07e0afb8f164d3d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rf483351c99c94db5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rc42bd62ab5df4f76"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R0b296ed3286e4a26"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rc9308ea954dd46f4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rb07e0afb8f164d3d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rf483351c99c94db5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R287b2d812bac45eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R71a8b040eef04768"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R7b2271f5281e48ca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R6d1c378904664885"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R4c54b346b6f14954"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R287b2d812bac45eb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R71a8b040eef04768"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R7b2271f5281e48ca"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R6d1c378904664885"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R4c54b346b6f14954"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R95551d036a4648e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R86469175a16e4d0e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rf163e38c3fd84665"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R987b5f3ceed244a4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R58c4f95d0f364059"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R95551d036a4648e5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R86469175a16e4d0e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rf163e38c3fd84665"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R987b5f3ceed244a4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R58c4f95d0f364059"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R6b09890d807e4d14"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R262ef1de448b49ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R5502c5d49ea144ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rb8d2d17500cb42ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R06dae68abc1a4f93"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R6b09890d807e4d14"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R262ef1de448b49ec"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R5502c5d49ea144ce"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="Rb8d2d17500cb42ce"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R06dae68abc1a4f93"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rf311ab6c79de47aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Re89cfc1f8f4947d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R21ddc85f453e4ef7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R42273c2cf84040d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R47eaca5a02004c55"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rf311ab6c79de47aa"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Re89cfc1f8f4947d8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R21ddc85f453e4ef7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R42273c2cf84040d4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R47eaca5a02004c55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Re905cab41f724c7e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R7268ad35bc1d49b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rb868ddf75df54c0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R5d48bfceb92e401f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rae636c9011d34601"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Re905cab41f724c7e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R7268ad35bc1d49b4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rb868ddf75df54c0d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R5d48bfceb92e401f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Rae636c9011d34601"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R273186cfcd544746"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rf249f71346854310"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rede80b2e6a924751"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R2b013ed873534108"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Re9649abe3a3d4b3b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R273186cfcd544746"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rf249f71346854310"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rede80b2e6a924751"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R2b013ed873534108"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="Re9649abe3a3d4b3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rb1f2a6b0c0104250"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R91c6956ddb3d460b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R139594cb2ee14c00"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R6990ecb0fd58451a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R71fd64fa70b54e38"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="Rb1f2a6b0c0104250"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="R91c6956ddb3d460b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R139594cb2ee14c00"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R6990ecb0fd58451a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R71fd64fa70b54e38"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R2951a501880a41f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rf3cd4ea2926a4bab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rb45222ee30644514"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R6f3b2eb1099a4756"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R1a6852810f9d4378"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/47_SheetTabColors.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R2951a501880a41f5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rf3cd4ea2926a4bab"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="Rb45222ee30644514"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R6f3b2eb1099a4756"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R1a6852810f9d4378"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" r:id="R7700b9d49f634ed3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1 Sales" sheetId="2" r:id="Rc96b06b13c914812"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2 Sales" sheetId="3" r:id="R1604ce6a53714585"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q3 Sales" sheetId="4" r:id="R7335cf7a115540a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4 Sales" sheetId="5" r:id="R2dc9da2e7e474b3a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
